--- a/targets.xlsx
+++ b/targets.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stevenadams/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOGUE2\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F9FA941-F5E0-4A94-9B1D-BB63B38ED8F6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42880" yWindow="-16700" windowWidth="39140" windowHeight="20980" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10290" tabRatio="500" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="avalon" sheetId="3" r:id="rId1"/>
     <sheet name="balmain" sheetId="1" r:id="rId2"/>
     <sheet name="bondi" sheetId="2" r:id="rId3"/>
     <sheet name="brighton" sheetId="8" r:id="rId4"/>
-    <sheet name="gungahlin" sheetId="4" r:id="rId5"/>
-    <sheet name="gymea" sheetId="5" r:id="rId6"/>
-    <sheet name="wahroonga" sheetId="6" r:id="rId7"/>
-    <sheet name="zetland" sheetId="7" r:id="rId8"/>
+    <sheet name="bulimba" sheetId="9" r:id="rId5"/>
+    <sheet name="gungahlin" sheetId="4" r:id="rId6"/>
+    <sheet name="gymea" sheetId="5" r:id="rId7"/>
+    <sheet name="wahroonga" sheetId="6" r:id="rId8"/>
+    <sheet name="zetland" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -34,12 +36,37 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Lila</author>
   </authors>
   <commentList>
-    <comment ref="B32" authorId="0">
+    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lila:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Amended down to $9100 by Margaret which was last year +30%.  Originally forecast to be 19351.97
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B44" authorId="0" shapeId="0" xr:uid="{80E49468-4408-4BAC-BA8B-F9E581283BB1}">
       <text>
         <r>
           <rPr>
@@ -69,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="11">
   <si>
     <t>month</t>
   </si>
@@ -85,17 +112,35 @@
   <si>
     <t>daycare</t>
   </si>
+  <si>
+    <t>2019-Jan</t>
+  </si>
+  <si>
+    <t>2019-Feb</t>
+  </si>
+  <si>
+    <t>2019-Mar</t>
+  </si>
+  <si>
+    <t>2019-Apr</t>
+  </si>
+  <si>
+    <t>2019-Jun</t>
+  </si>
+  <si>
+    <t>2019-May</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mmm"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mmm"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -197,39 +242,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -238,14 +272,37 @@
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -548,26 +605,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -584,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42309</v>
       </c>
@@ -594,7 +651,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42339</v>
       </c>
@@ -604,7 +661,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42370</v>
       </c>
@@ -614,7 +671,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42401</v>
       </c>
@@ -624,7 +681,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42430</v>
       </c>
@@ -634,7 +691,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42461</v>
       </c>
@@ -644,7 +701,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42491</v>
       </c>
@@ -654,7 +711,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42522</v>
       </c>
@@ -664,7 +721,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42552</v>
       </c>
@@ -674,7 +731,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42583</v>
       </c>
@@ -684,7 +741,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42614</v>
       </c>
@@ -694,7 +751,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42644</v>
       </c>
@@ -704,7 +761,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42675</v>
       </c>
@@ -714,7 +771,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42705</v>
       </c>
@@ -724,7 +781,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42736</v>
       </c>
@@ -734,7 +791,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42767</v>
       </c>
@@ -744,7 +801,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42795</v>
       </c>
@@ -754,7 +811,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42826</v>
       </c>
@@ -764,7 +821,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42856</v>
       </c>
@@ -774,7 +831,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42887</v>
       </c>
@@ -784,7 +841,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42917</v>
       </c>
@@ -794,7 +851,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42948</v>
       </c>
@@ -804,7 +861,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>42979</v>
       </c>
@@ -814,240 +871,402 @@
       <c r="E24" s="6"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43009</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="19">
         <v>12100.000000000002</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="20">
         <v>11000</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="20">
         <v>2200</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="20">
         <f>SUM(B25:D25)</f>
         <v>25300</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43040</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="19">
         <v>13200.000000000002</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="20">
         <v>14300.000000000002</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="20">
         <v>2200</v>
       </c>
-      <c r="E26" s="9">
-        <f t="shared" ref="E26:E33" si="0">SUM(B26:D26)</f>
+      <c r="E26" s="20">
+        <f t="shared" ref="E26:E45" si="0">SUM(B26:D26)</f>
         <v>29700.000000000004</v>
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43070</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="19">
         <v>19800</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="20">
         <v>17600</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="20">
         <v>3300.0000000000005</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="20">
         <f t="shared" si="0"/>
         <v>40700</v>
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="19">
         <v>16500</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="20">
         <v>13400</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="20">
         <v>2000</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="20">
         <f t="shared" si="0"/>
         <v>31900</v>
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43132</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="19">
         <v>16500</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="20">
         <v>15000</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="20">
         <v>2400</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="20">
         <f t="shared" si="0"/>
         <v>33900</v>
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43160</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="19">
         <v>16500</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="20">
         <v>15500</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="20">
         <v>2800</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="20">
         <f t="shared" si="0"/>
         <v>34800</v>
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43191</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="19">
         <v>16500</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="20">
         <v>16000</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="20">
         <v>3200</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="20">
         <f t="shared" si="0"/>
         <v>35700</v>
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43221</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="19">
         <v>19800</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="20">
         <v>16500</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="20">
         <v>3600</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="20">
         <f t="shared" si="0"/>
         <v>39900</v>
       </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43252</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="19">
         <v>19800</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="20">
         <v>17000</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="20">
         <v>4000</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="20">
         <f t="shared" si="0"/>
         <v>40800</v>
       </c>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="18">
         <v>43282</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="B34" s="21">
+        <v>16000</v>
+      </c>
+      <c r="C34" s="22">
+        <v>10500</v>
+      </c>
+      <c r="D34" s="21">
+        <v>1500</v>
+      </c>
+      <c r="E34" s="20">
+        <f t="shared" si="0"/>
+        <v>28000</v>
+      </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="24">
         <v>43313</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="B35" s="21">
+        <v>14000</v>
+      </c>
+      <c r="C35" s="25">
+        <v>11000</v>
+      </c>
+      <c r="D35" s="21">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="26">
+        <f t="shared" si="0"/>
+        <v>26500</v>
+      </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="24">
         <v>43344</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="B36" s="21">
+        <v>15000</v>
+      </c>
+      <c r="C36" s="25">
+        <v>12000</v>
+      </c>
+      <c r="D36" s="21">
+        <v>1500</v>
+      </c>
+      <c r="E36" s="26">
+        <f t="shared" si="0"/>
+        <v>28500</v>
+      </c>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="24">
         <v>43374</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="B37" s="21">
+        <v>15000</v>
+      </c>
+      <c r="C37" s="25">
+        <v>13000</v>
+      </c>
+      <c r="D37" s="21">
+        <v>2000</v>
+      </c>
+      <c r="E37" s="26">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="24">
         <v>43405</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="B38" s="21">
+        <v>17000</v>
+      </c>
+      <c r="C38" s="25">
+        <v>15000</v>
+      </c>
+      <c r="D38" s="21">
+        <v>2000</v>
+      </c>
+      <c r="E38" s="26">
+        <f t="shared" si="0"/>
+        <v>34000</v>
+      </c>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="24">
         <v>43435</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="B39" s="21">
+        <v>23000</v>
+      </c>
+      <c r="C39" s="25">
+        <v>17500</v>
+      </c>
+      <c r="D39" s="21">
+        <v>3000</v>
+      </c>
+      <c r="E39" s="26">
+        <f t="shared" si="0"/>
+        <v>43500</v>
+      </c>
       <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="21">
+        <v>18000</v>
+      </c>
+      <c r="C40" s="25">
+        <v>15000</v>
+      </c>
+      <c r="D40" s="21">
+        <v>2500</v>
+      </c>
+      <c r="E40" s="26">
+        <f t="shared" si="0"/>
+        <v>35500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="21">
+        <v>12000</v>
+      </c>
+      <c r="C41" s="25">
+        <v>15000</v>
+      </c>
+      <c r="D41" s="21">
+        <v>2500</v>
+      </c>
+      <c r="E41" s="26">
+        <f t="shared" si="0"/>
+        <v>29500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="21">
+        <v>18000</v>
+      </c>
+      <c r="C42" s="25">
+        <v>16000</v>
+      </c>
+      <c r="D42" s="21">
+        <v>3000</v>
+      </c>
+      <c r="E42" s="26">
+        <f t="shared" si="0"/>
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="21">
+        <v>16000</v>
+      </c>
+      <c r="C43" s="25">
+        <v>17000</v>
+      </c>
+      <c r="D43" s="21">
+        <v>3000</v>
+      </c>
+      <c r="E43" s="26">
+        <f t="shared" si="0"/>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="21">
+        <v>19000</v>
+      </c>
+      <c r="C44" s="25">
+        <v>17000</v>
+      </c>
+      <c r="D44" s="21">
+        <v>3500</v>
+      </c>
+      <c r="E44" s="26">
+        <f t="shared" si="0"/>
+        <v>39500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="21">
+        <v>20000</v>
+      </c>
+      <c r="C45" s="25">
+        <v>18000</v>
+      </c>
+      <c r="D45" s="21">
+        <v>3500</v>
+      </c>
+      <c r="E45" s="26">
+        <f t="shared" si="0"/>
+        <v>41500</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1057,20 +1276,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
     <col min="2" max="4" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1087,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42309</v>
       </c>
@@ -1105,7 +1327,7 @@
         <v>18480</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42339</v>
       </c>
@@ -1123,7 +1345,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42370</v>
       </c>
@@ -1141,7 +1363,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42401</v>
       </c>
@@ -1159,7 +1381,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42430</v>
       </c>
@@ -1177,7 +1399,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42461</v>
       </c>
@@ -1195,7 +1417,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42491</v>
       </c>
@@ -1213,7 +1435,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42522</v>
       </c>
@@ -1231,7 +1453,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42552</v>
       </c>
@@ -1249,7 +1471,7 @@
         <v>40481</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42583</v>
       </c>
@@ -1267,7 +1489,7 @@
         <v>40481</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42614</v>
       </c>
@@ -1285,7 +1507,7 @@
         <v>46264</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42644</v>
       </c>
@@ -1303,7 +1525,7 @@
         <v>46264</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42675</v>
       </c>
@@ -1321,7 +1543,7 @@
         <v>63613</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42705</v>
       </c>
@@ -1339,7 +1561,7 @@
         <v>69396</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42736</v>
       </c>
@@ -1357,7 +1579,7 @@
         <v>40481</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42767</v>
       </c>
@@ -1375,7 +1597,7 @@
         <v>46264</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42795</v>
       </c>
@@ -1393,7 +1615,7 @@
         <v>52047</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42826</v>
       </c>
@@ -1411,7 +1633,7 @@
         <v>52047</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42856</v>
       </c>
@@ -1429,7 +1651,7 @@
         <v>46264</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42887</v>
       </c>
@@ -1447,7 +1669,7 @@
         <v>46264</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42917</v>
       </c>
@@ -1465,7 +1687,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42948</v>
       </c>
@@ -1483,7 +1705,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>42979</v>
       </c>
@@ -1501,7 +1723,7 @@
         <v>64000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43009</v>
       </c>
@@ -1519,7 +1741,7 @@
         <v>64000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43040</v>
       </c>
@@ -1537,7 +1759,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43070</v>
       </c>
@@ -1555,7 +1777,7 @@
         <v>82000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
@@ -1573,7 +1795,7 @@
         <v>70500</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43132</v>
       </c>
@@ -1587,11 +1809,11 @@
         <v>10500</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" ref="E29:E39" si="1">B29+C29+D29</f>
+        <f t="shared" ref="E29:E45" si="1">B29+C29+D29</f>
         <v>66900</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43160</v>
       </c>
@@ -1609,7 +1831,7 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43191</v>
       </c>
@@ -1627,7 +1849,7 @@
         <v>67800</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43221</v>
       </c>
@@ -1645,7 +1867,7 @@
         <v>80200</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43252</v>
       </c>
@@ -1663,112 +1885,220 @@
         <v>74600</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="24">
         <v>43282</v>
       </c>
-      <c r="B34" s="4">
-        <v>23000</v>
-      </c>
-      <c r="C34" s="4">
-        <v>41600</v>
-      </c>
-      <c r="D34" s="4">
-        <v>10000</v>
-      </c>
-      <c r="E34" s="4">
-        <f t="shared" si="1"/>
-        <v>74600</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="B34" s="28">
+        <v>26000</v>
+      </c>
+      <c r="C34" s="28">
+        <v>42000</v>
+      </c>
+      <c r="D34" s="28">
+        <v>12000</v>
+      </c>
+      <c r="E34" s="28">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="24">
         <v>43313</v>
       </c>
-      <c r="B35" s="4">
-        <v>23000</v>
-      </c>
-      <c r="C35" s="4">
-        <v>41600</v>
-      </c>
-      <c r="D35" s="4">
-        <v>10000</v>
-      </c>
-      <c r="E35" s="4">
-        <f t="shared" si="1"/>
-        <v>74600</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="B35" s="28">
+        <v>20000</v>
+      </c>
+      <c r="C35" s="28">
+        <v>45000</v>
+      </c>
+      <c r="D35" s="28">
+        <v>12000</v>
+      </c>
+      <c r="E35" s="28">
+        <f t="shared" si="1"/>
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="24">
         <v>43344</v>
       </c>
-      <c r="B36" s="4">
-        <v>23000</v>
-      </c>
-      <c r="C36" s="4">
-        <v>41600</v>
-      </c>
-      <c r="D36" s="4">
-        <v>10000</v>
-      </c>
-      <c r="E36" s="4">
-        <f t="shared" si="1"/>
-        <v>74600</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="B36" s="28">
+        <v>18000</v>
+      </c>
+      <c r="C36" s="28">
+        <v>46000</v>
+      </c>
+      <c r="D36" s="28">
+        <v>12000</v>
+      </c>
+      <c r="E36" s="28">
+        <f t="shared" si="1"/>
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="24">
         <v>43374</v>
       </c>
-      <c r="B37" s="4">
-        <v>23000</v>
-      </c>
-      <c r="C37" s="4">
-        <v>41600</v>
-      </c>
-      <c r="D37" s="4">
-        <v>10000</v>
-      </c>
-      <c r="E37" s="4">
-        <f t="shared" si="1"/>
-        <v>74600</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="B37" s="28">
+        <v>20000</v>
+      </c>
+      <c r="C37" s="28">
+        <v>46000</v>
+      </c>
+      <c r="D37" s="28">
+        <v>12000</v>
+      </c>
+      <c r="E37" s="28">
+        <f t="shared" si="1"/>
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="24">
         <v>43405</v>
       </c>
-      <c r="B38" s="4">
-        <v>23000</v>
-      </c>
-      <c r="C38" s="4">
-        <v>41600</v>
-      </c>
-      <c r="D38" s="4">
-        <v>10000</v>
-      </c>
-      <c r="E38" s="4">
-        <f t="shared" si="1"/>
-        <v>74600</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="B38" s="28">
+        <v>27000</v>
+      </c>
+      <c r="C38" s="28">
+        <v>46000</v>
+      </c>
+      <c r="D38" s="28">
+        <v>12000</v>
+      </c>
+      <c r="E38" s="28">
+        <f t="shared" si="1"/>
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="24">
         <v>43435</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="28">
         <v>35000</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="28">
+        <v>50000</v>
+      </c>
+      <c r="D39" s="28">
+        <v>12000</v>
+      </c>
+      <c r="E39" s="28">
+        <f t="shared" si="1"/>
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="28">
+        <v>24000</v>
+      </c>
+      <c r="C40" s="28">
         <v>45000</v>
       </c>
-      <c r="D39" s="4">
-        <v>15000</v>
-      </c>
-      <c r="E39" s="4">
-        <f t="shared" si="1"/>
-        <v>95000</v>
+      <c r="D40" s="28">
+        <v>12000</v>
+      </c>
+      <c r="E40" s="28">
+        <f t="shared" si="1"/>
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="28">
+        <v>22000</v>
+      </c>
+      <c r="C41" s="28">
+        <v>42000</v>
+      </c>
+      <c r="D41" s="28">
+        <v>12000</v>
+      </c>
+      <c r="E41" s="28">
+        <f t="shared" si="1"/>
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="28">
+        <v>26000</v>
+      </c>
+      <c r="C42" s="28">
+        <v>44000</v>
+      </c>
+      <c r="D42" s="28">
+        <v>12000</v>
+      </c>
+      <c r="E42" s="28">
+        <f t="shared" si="1"/>
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="28">
+        <v>24000</v>
+      </c>
+      <c r="C43" s="28">
+        <v>45000</v>
+      </c>
+      <c r="D43" s="28">
+        <v>12000</v>
+      </c>
+      <c r="E43" s="28">
+        <f t="shared" si="1"/>
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="28">
+        <v>32000</v>
+      </c>
+      <c r="C44" s="28">
+        <v>46000</v>
+      </c>
+      <c r="D44" s="28">
+        <v>12000</v>
+      </c>
+      <c r="E44" s="28">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="28">
+        <v>32000</v>
+      </c>
+      <c r="C45" s="28">
+        <v>46000</v>
+      </c>
+      <c r="D45" s="28">
+        <v>12000</v>
+      </c>
+      <c r="E45" s="28">
+        <f t="shared" si="1"/>
+        <v>90000</v>
       </c>
     </row>
   </sheetData>
@@ -1777,17 +2107,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -1882,13 +2212,13 @@
       <c r="A10" s="1">
         <v>42552</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="11">
         <v>34466.526160000001</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="11">
         <v>37672.714639999998</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="11">
         <v>8015.4712</v>
       </c>
       <c r="E10" s="4">
@@ -1900,17 +2230,17 @@
       <c r="A11" s="1">
         <v>42583</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="11">
         <v>35140.875</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="11">
         <v>34901.259999999995</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="11">
         <v>6655.0000000000009</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" ref="E11:E21" si="0">SUM(B11:D11)</f>
+        <f t="shared" ref="E11:E45" si="0">SUM(B11:D11)</f>
         <v>76697.134999999995</v>
       </c>
     </row>
@@ -1918,13 +2248,13 @@
       <c r="A12" s="1">
         <v>42614</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="11">
         <v>30532.579999999998</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="11">
         <v>33372.82</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="11">
         <v>7100.6</v>
       </c>
       <c r="E12" s="4">
@@ -1936,13 +2266,13 @@
       <c r="A13" s="1">
         <v>42644</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="11">
         <v>31320.77</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="11">
         <v>34234.329999999994</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="11">
         <v>7283.9000000000005</v>
       </c>
       <c r="E13" s="4">
@@ -1954,13 +2284,13 @@
       <c r="A14" s="1">
         <v>42675</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="11">
         <v>30549</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="11">
         <v>33391</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="11">
         <v>7104</v>
       </c>
       <c r="E14" s="4">
@@ -1972,13 +2302,13 @@
       <c r="A15" s="1">
         <v>42705</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="11">
         <v>33206.32</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="11">
         <v>36295.279999999999</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="11">
         <v>7722.4000000000005</v>
       </c>
       <c r="E15" s="4">
@@ -1990,13 +2320,13 @@
       <c r="A16" s="1">
         <v>42736</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="11">
         <v>28343.02</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="11">
         <v>30979.579999999998</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="11">
         <v>6591.4000000000005</v>
       </c>
       <c r="E16" s="4">
@@ -2008,13 +2338,13 @@
       <c r="A17" s="1">
         <v>42767</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="11">
         <v>28343.02</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="11">
         <v>33863.5</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="11">
         <v>7205</v>
       </c>
       <c r="E17" s="4">
@@ -2026,13 +2356,13 @@
       <c r="A18" s="1">
         <v>42795</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="11">
         <v>28000</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="11">
         <v>38000</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="11">
         <v>10000</v>
       </c>
       <c r="E18" s="4">
@@ -2044,13 +2374,13 @@
       <c r="A19" s="1">
         <v>42826</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="12">
         <v>24360</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="11">
         <v>30240</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="11">
         <v>6720</v>
       </c>
       <c r="E19" s="4">
@@ -2062,13 +2392,13 @@
       <c r="A20" s="1">
         <v>42856</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="11">
         <v>30000</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="11">
         <v>38000</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="11">
         <v>10000</v>
       </c>
       <c r="E20" s="4">
@@ -2080,13 +2410,13 @@
       <c r="A21" s="1">
         <v>42887</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="11">
         <v>31000</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="11">
         <v>38000</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="11">
         <v>10000</v>
       </c>
       <c r="E21" s="4">
@@ -2098,16 +2428,17 @@
       <c r="A22" s="1">
         <v>42917</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="10">
         <v>19500</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="10">
         <v>40000</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="10">
         <v>11000</v>
       </c>
       <c r="E22" s="4">
+        <f t="shared" si="0"/>
         <v>70500</v>
       </c>
     </row>
@@ -2115,16 +2446,17 @@
       <c r="A23" s="1">
         <v>42948</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="10">
         <v>18000</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="10">
         <v>38400</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="10">
         <v>10500</v>
       </c>
       <c r="E23" s="4">
+        <f t="shared" si="0"/>
         <v>66900</v>
       </c>
     </row>
@@ -2132,16 +2464,17 @@
       <c r="A24" s="1">
         <v>42979</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="10">
         <v>22000</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="10">
         <v>40000</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="10">
         <v>11000</v>
       </c>
       <c r="E24" s="4">
+        <f t="shared" si="0"/>
         <v>73000</v>
       </c>
     </row>
@@ -2149,16 +2482,17 @@
       <c r="A25" s="1">
         <v>43009</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="10">
         <v>21000</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="10">
         <v>36800</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="10">
         <v>10000</v>
       </c>
       <c r="E25" s="4">
+        <f t="shared" si="0"/>
         <v>67800</v>
       </c>
     </row>
@@ -2166,16 +2500,17 @@
       <c r="A26" s="1">
         <v>43040</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="10">
         <v>26000</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="10">
         <v>43200</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="10">
         <v>11000</v>
       </c>
       <c r="E26" s="4">
+        <f t="shared" si="0"/>
         <v>80200</v>
       </c>
     </row>
@@ -2183,16 +2518,17 @@
       <c r="A27" s="1">
         <v>43070</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="10">
         <v>23000</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="10">
         <v>41600</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="10">
         <v>10000</v>
       </c>
       <c r="E27" s="4">
+        <f t="shared" si="0"/>
         <v>74600</v>
       </c>
     </row>
@@ -2210,6 +2546,7 @@
         <v>10000</v>
       </c>
       <c r="E28" s="4">
+        <f t="shared" si="0"/>
         <v>74600</v>
       </c>
     </row>
@@ -2227,6 +2564,7 @@
         <v>10000</v>
       </c>
       <c r="E29" s="4">
+        <f t="shared" si="0"/>
         <v>74600</v>
       </c>
     </row>
@@ -2244,6 +2582,7 @@
         <v>10000</v>
       </c>
       <c r="E30" s="4">
+        <f t="shared" si="0"/>
         <v>74600</v>
       </c>
     </row>
@@ -2251,16 +2590,17 @@
       <c r="A31" s="1">
         <v>43191</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="23">
         <v>23000</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="23">
         <v>41600</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="23">
         <v>10000</v>
       </c>
       <c r="E31" s="4">
+        <f t="shared" si="0"/>
         <v>74600</v>
       </c>
     </row>
@@ -2268,16 +2608,17 @@
       <c r="A32" s="1">
         <v>43221</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="23">
         <v>23000</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="23">
         <v>41600</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="23">
         <v>10000</v>
       </c>
       <c r="E32" s="4">
+        <f t="shared" si="0"/>
         <v>74600</v>
       </c>
     </row>
@@ -2285,72 +2626,235 @@
       <c r="A33" s="1">
         <v>43252</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="23">
         <v>35000</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="23">
         <v>45000</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="23">
         <v>15000</v>
       </c>
       <c r="E33" s="4">
+        <f t="shared" si="0"/>
         <v>95000</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="24">
         <v>43282</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="B34" s="25">
+        <v>28000</v>
+      </c>
+      <c r="C34" s="25">
+        <v>45000</v>
+      </c>
+      <c r="D34" s="25">
+        <v>10000</v>
+      </c>
+      <c r="E34" s="28">
+        <f t="shared" si="0"/>
+        <v>83000</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="24">
         <v>43313</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="B35" s="25">
+        <v>27000</v>
+      </c>
+      <c r="C35" s="25">
+        <v>45000</v>
+      </c>
+      <c r="D35" s="25">
+        <v>15000</v>
+      </c>
+      <c r="E35" s="28">
+        <f t="shared" si="0"/>
+        <v>87000</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="24">
         <v>43344</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="B36" s="25">
+        <v>26000</v>
+      </c>
+      <c r="C36" s="25">
+        <v>48000</v>
+      </c>
+      <c r="D36" s="25">
+        <v>13000</v>
+      </c>
+      <c r="E36" s="28">
+        <f t="shared" si="0"/>
+        <v>87000</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="24">
         <v>43374</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="B37" s="25">
+        <v>26000</v>
+      </c>
+      <c r="C37" s="25">
+        <v>48000</v>
+      </c>
+      <c r="D37" s="25">
+        <v>12000</v>
+      </c>
+      <c r="E37" s="28">
+        <f t="shared" si="0"/>
+        <v>86000</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="24">
         <v>43405</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="B38" s="25">
+        <v>30000</v>
+      </c>
+      <c r="C38" s="25">
+        <v>45000</v>
+      </c>
+      <c r="D38" s="25">
+        <v>14000</v>
+      </c>
+      <c r="E38" s="28">
+        <f t="shared" si="0"/>
+        <v>89000</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39" s="24">
         <v>43435</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="B39" s="25">
+        <v>35000</v>
+      </c>
+      <c r="C39" s="25">
+        <v>45000</v>
+      </c>
+      <c r="D39" s="25">
+        <v>12000</v>
+      </c>
+      <c r="E39" s="28">
+        <f t="shared" si="0"/>
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="25">
+        <v>28000</v>
+      </c>
+      <c r="C40" s="25">
+        <v>43000</v>
+      </c>
+      <c r="D40" s="25">
+        <v>9000</v>
+      </c>
+      <c r="E40" s="28">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="25">
+        <v>25000</v>
+      </c>
+      <c r="C41" s="25">
+        <v>43000</v>
+      </c>
+      <c r="D41" s="25">
+        <v>12000</v>
+      </c>
+      <c r="E41" s="28">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="25">
+        <v>25000</v>
+      </c>
+      <c r="C42" s="25">
+        <v>46000</v>
+      </c>
+      <c r="D42" s="25">
+        <v>15000</v>
+      </c>
+      <c r="E42" s="28">
+        <f t="shared" si="0"/>
+        <v>86000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="25">
+        <v>25000</v>
+      </c>
+      <c r="C43" s="25">
+        <v>46000</v>
+      </c>
+      <c r="D43" s="25">
+        <v>12000</v>
+      </c>
+      <c r="E43" s="28">
+        <f t="shared" si="0"/>
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="25">
+        <v>30000</v>
+      </c>
+      <c r="C44" s="25">
+        <v>48000</v>
+      </c>
+      <c r="D44" s="25">
+        <v>15000</v>
+      </c>
+      <c r="E44" s="28">
+        <f t="shared" si="0"/>
+        <v>93000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="25">
+        <v>32000</v>
+      </c>
+      <c r="C45" s="25">
+        <v>48000</v>
+      </c>
+      <c r="D45" s="25">
+        <v>13000</v>
+      </c>
+      <c r="E45" s="28">
+        <f t="shared" si="0"/>
+        <v>93000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2358,22 +2862,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29:J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2390,7 +2896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42309</v>
       </c>
@@ -2399,7 +2905,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42339</v>
       </c>
@@ -2408,7 +2914,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42370</v>
       </c>
@@ -2417,7 +2923,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42401</v>
       </c>
@@ -2426,7 +2932,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42430</v>
       </c>
@@ -2435,7 +2941,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42461</v>
       </c>
@@ -2444,7 +2950,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42491</v>
       </c>
@@ -2453,7 +2959,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42522</v>
       </c>
@@ -2462,7 +2968,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42552</v>
       </c>
@@ -2471,7 +2977,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42583</v>
       </c>
@@ -2486,172 +2992,172 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="10"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42644</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="13">
         <v>3360</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="13">
         <v>3360</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="13">
         <v>480</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="23">
         <f>SUM(B13:D13)</f>
         <v>7200</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42675</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="13">
         <v>7980</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="13">
         <v>7980</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="13">
         <v>200</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="23">
         <f t="shared" ref="E14:E21" si="0">SUM(B14:D14)</f>
         <v>16160</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42705</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="13">
         <v>11130</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="13">
         <v>11130</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="13">
         <v>500</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="23">
         <f t="shared" si="0"/>
         <v>22760</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42736</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="13">
         <v>10710</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="13">
         <v>10710</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="13">
         <v>850</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="23">
         <f t="shared" si="0"/>
         <v>22270</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42767</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="13">
         <v>11130</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="13">
         <v>11130</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="13">
         <v>1250</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="23">
         <f t="shared" si="0"/>
         <v>23510</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42795</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="13">
         <v>11970</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="13">
         <v>11970</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="13">
         <v>1400</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="23">
         <f t="shared" si="0"/>
         <v>25340</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42826</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="12">
         <v>10408</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="12">
         <v>12886</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="11">
         <v>1428</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="23">
         <f t="shared" si="0"/>
         <v>24722</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42856</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="13">
         <v>13420</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="13">
         <v>13420</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="13">
         <v>1850</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="23">
         <f t="shared" si="0"/>
         <v>28690</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42887</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="13">
         <v>14080</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="13">
         <v>14080</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="13">
         <v>2250</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="23">
         <f t="shared" si="0"/>
         <v>30410</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42917</v>
       </c>
@@ -2664,12 +3170,12 @@
       <c r="D22" s="11">
         <v>1100</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="23">
         <f>SUM(B22:D22)</f>
         <v>31900</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42948</v>
       </c>
@@ -2682,12 +3188,12 @@
       <c r="D23" s="11">
         <v>1100</v>
       </c>
-      <c r="E23" s="4">
-        <f t="shared" ref="E23:E33" si="1">SUM(B23:D23)</f>
+      <c r="E23" s="23">
+        <f t="shared" ref="E23:E45" si="1">SUM(B23:D23)</f>
         <v>31900</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>42979</v>
       </c>
@@ -2700,124 +3206,124 @@
       <c r="D24" s="11">
         <v>1100</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="23">
         <f t="shared" si="1"/>
         <v>34100</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43009</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="13">
         <v>14300.000000000002</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="13">
         <v>18700</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="13">
         <v>1100</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="23">
         <f t="shared" si="1"/>
         <v>34100</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43040</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="13">
         <v>14300.000000000002</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="13">
         <v>23000</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="13">
         <v>1800</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="23">
         <f t="shared" si="1"/>
         <v>39100</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43070</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="13">
         <v>18700</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="13">
         <v>23000</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="13">
         <v>1800</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="23">
         <f t="shared" si="1"/>
         <v>43500</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="13">
         <v>14300.000000000002</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="13">
         <v>25000</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="13">
         <v>2000</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="23">
         <f t="shared" si="1"/>
         <v>41300</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43132</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="13">
         <v>14300.000000000002</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="13">
         <v>25000</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="13">
         <v>2000</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="23">
         <f t="shared" si="1"/>
         <v>41300</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43160</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="13">
         <v>15400.000000000002</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="13">
         <v>27000</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="13">
         <v>2500</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="23">
         <f t="shared" si="1"/>
         <v>44900</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43191</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="12">
         <v>16500</v>
       </c>
       <c r="C31" s="11">
@@ -2826,100 +3332,262 @@
       <c r="D31" s="11">
         <v>3000</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="23">
         <f t="shared" si="1"/>
         <v>46500</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43221</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="13">
         <v>17500</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="13">
         <v>27000</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="13">
         <v>3500</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="23">
         <f t="shared" si="1"/>
         <v>48000</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43252</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="13">
         <v>17500</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="13">
         <v>25000</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="13">
         <v>3500</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="23">
         <f t="shared" si="1"/>
         <v>46000</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="24">
         <v>43282</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="B34" s="25">
+        <v>12000</v>
+      </c>
+      <c r="C34" s="25">
+        <v>25000</v>
+      </c>
+      <c r="D34" s="25">
+        <v>4000</v>
+      </c>
+      <c r="E34" s="25">
+        <f t="shared" si="1"/>
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="24">
         <v>43313</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="B35" s="25">
+        <v>12000</v>
+      </c>
+      <c r="C35" s="25">
+        <v>25000</v>
+      </c>
+      <c r="D35" s="25">
+        <v>4000</v>
+      </c>
+      <c r="E35" s="25">
+        <f t="shared" si="1"/>
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="24">
         <v>43344</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="B36" s="25">
+        <v>12000</v>
+      </c>
+      <c r="C36" s="25">
+        <v>27000</v>
+      </c>
+      <c r="D36" s="25">
+        <v>4250</v>
+      </c>
+      <c r="E36" s="25">
+        <f t="shared" si="1"/>
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="24">
         <v>43374</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="B37" s="25">
+        <v>13000</v>
+      </c>
+      <c r="C37" s="25">
+        <v>27000</v>
+      </c>
+      <c r="D37" s="25">
+        <v>4250</v>
+      </c>
+      <c r="E37" s="25">
+        <f t="shared" si="1"/>
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="24">
         <v>43405</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="B38" s="25">
+        <v>17000</v>
+      </c>
+      <c r="C38" s="25">
+        <v>28000</v>
+      </c>
+      <c r="D38" s="25">
+        <v>4500</v>
+      </c>
+      <c r="E38" s="25">
+        <f t="shared" si="1"/>
+        <v>49500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="24">
         <v>43435</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="B39" s="25">
+        <v>20000</v>
+      </c>
+      <c r="C39" s="25">
+        <v>28000</v>
+      </c>
+      <c r="D39" s="25">
+        <v>5000</v>
+      </c>
+      <c r="E39" s="25">
+        <f t="shared" si="1"/>
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="25">
+        <v>15000</v>
+      </c>
+      <c r="C40" s="25">
+        <v>25000</v>
+      </c>
+      <c r="D40" s="25">
+        <v>4500</v>
+      </c>
+      <c r="E40" s="25">
+        <f t="shared" si="1"/>
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="25">
+        <v>15000</v>
+      </c>
+      <c r="C41" s="25">
+        <v>25000</v>
+      </c>
+      <c r="D41" s="25">
+        <v>4500</v>
+      </c>
+      <c r="E41" s="25">
+        <f t="shared" si="1"/>
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="25">
+        <v>15000</v>
+      </c>
+      <c r="C42" s="25">
+        <v>26000</v>
+      </c>
+      <c r="D42" s="25">
+        <v>5000</v>
+      </c>
+      <c r="E42" s="25">
+        <f t="shared" si="1"/>
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="25">
+        <v>15000</v>
+      </c>
+      <c r="C43" s="25">
+        <v>26000</v>
+      </c>
+      <c r="D43" s="25">
+        <v>5000</v>
+      </c>
+      <c r="E43" s="25">
+        <f t="shared" si="1"/>
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="25">
+        <v>18000</v>
+      </c>
+      <c r="C44" s="25">
+        <v>27000</v>
+      </c>
+      <c r="D44" s="25">
+        <v>6000</v>
+      </c>
+      <c r="E44" s="25">
+        <f t="shared" si="1"/>
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="25">
+        <v>18000</v>
+      </c>
+      <c r="C45" s="25">
+        <v>27000</v>
+      </c>
+      <c r="D45" s="25">
+        <v>6000</v>
+      </c>
+      <c r="E45" s="25">
+        <f t="shared" si="1"/>
+        <v>51000</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B25:B30 B32:B33">
@@ -2942,19 +3610,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E5A975-2083-4FB8-8DDB-5143682BB45F}">
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3051,487 +3721,505 @@
       <c r="A10" s="1">
         <v>42552</v>
       </c>
-      <c r="B10" s="15">
-        <v>2743</v>
-      </c>
-      <c r="C10" s="15">
-        <v>24683</v>
-      </c>
-      <c r="D10" s="15">
-        <v>3047</v>
-      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="4">
-        <f>SUM(B10:D10)</f>
-        <v>30473</v>
+        <f t="shared" ref="E10:E21" si="0">SUM(B10:D10)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42583</v>
       </c>
-      <c r="B11" s="15">
-        <v>2748</v>
-      </c>
-      <c r="C11" s="15">
-        <v>24732</v>
-      </c>
-      <c r="D11" s="15">
-        <v>3053</v>
-      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="4">
-        <f t="shared" ref="E11:E21" si="0">SUM(B11:D11)</f>
-        <v>30533</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42614</v>
       </c>
-      <c r="B12" s="15">
-        <v>2779</v>
-      </c>
-      <c r="C12" s="15">
-        <v>25007</v>
-      </c>
-      <c r="D12" s="15">
-        <v>3087</v>
-      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>30873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42644</v>
       </c>
-      <c r="B13" s="15">
-        <v>2815</v>
-      </c>
-      <c r="C13" s="15">
-        <v>25335</v>
-      </c>
-      <c r="D13" s="15">
-        <v>3128</v>
-      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
-        <v>31278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42675</v>
       </c>
-      <c r="B14" s="15">
-        <v>2826</v>
-      </c>
-      <c r="C14" s="15">
-        <v>25432</v>
-      </c>
-      <c r="D14" s="15">
-        <v>3140</v>
-      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="4">
         <f t="shared" si="0"/>
-        <v>31398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42705</v>
       </c>
-      <c r="B15" s="15">
-        <v>4633.8600000000006</v>
-      </c>
-      <c r="C15" s="15">
-        <v>26810</v>
-      </c>
-      <c r="D15" s="15">
-        <v>3310</v>
-      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="4">
         <f t="shared" si="0"/>
-        <v>34753.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42736</v>
       </c>
-      <c r="B16" s="15">
-        <v>4648</v>
-      </c>
-      <c r="C16" s="15">
-        <v>26945</v>
-      </c>
-      <c r="D16" s="15">
-        <v>3327</v>
-      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="4">
         <f t="shared" si="0"/>
-        <v>34920</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42767</v>
       </c>
-      <c r="B17" s="15">
-        <v>4657.2400000000007</v>
-      </c>
-      <c r="C17" s="15">
-        <v>26999</v>
-      </c>
-      <c r="D17" s="15">
-        <v>3333</v>
-      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="4">
         <f t="shared" si="0"/>
-        <v>34989.240000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42795</v>
       </c>
-      <c r="B18" s="15">
-        <v>4666.4800000000005</v>
-      </c>
-      <c r="C18" s="15">
-        <v>27077</v>
-      </c>
-      <c r="D18" s="15">
-        <v>3343</v>
-      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="4">
         <f t="shared" si="0"/>
-        <v>35086.479999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42826</v>
       </c>
-      <c r="B19" s="16">
-        <v>3931</v>
-      </c>
-      <c r="C19" s="15">
-        <v>22878</v>
-      </c>
-      <c r="D19" s="15">
-        <v>2825</v>
-      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="4">
         <f t="shared" si="0"/>
-        <v>29634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42856</v>
       </c>
-      <c r="B20" s="15">
-        <v>4707.5</v>
-      </c>
-      <c r="C20" s="15">
-        <v>27259</v>
-      </c>
-      <c r="D20" s="15">
-        <v>3365</v>
-      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="4">
         <f t="shared" si="0"/>
-        <v>35331.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42887</v>
       </c>
-      <c r="B21" s="15">
-        <v>4711.42</v>
-      </c>
-      <c r="C21" s="15">
-        <v>27259</v>
-      </c>
-      <c r="D21" s="15">
-        <v>3365</v>
-      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="4">
         <f t="shared" si="0"/>
-        <v>35335.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42917</v>
       </c>
-      <c r="B22" s="15">
-        <v>4950</v>
-      </c>
-      <c r="C22" s="15">
-        <v>27500.000000000004</v>
-      </c>
-      <c r="D22" s="15">
-        <v>3850.0000000000005</v>
-      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="4">
         <f>SUM(B22:D22)</f>
-        <v>36300.000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42948</v>
       </c>
-      <c r="B23" s="15">
-        <v>4950</v>
-      </c>
-      <c r="C23" s="15">
-        <v>27500.000000000004</v>
-      </c>
-      <c r="D23" s="15">
-        <v>3850.0000000000005</v>
-      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="4">
-        <f t="shared" ref="E23:E33" si="1">SUM(B23:D23)</f>
-        <v>36300.000000000007</v>
+        <f t="shared" ref="E23:E45" si="1">SUM(B23:D23)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>42979</v>
       </c>
-      <c r="B24" s="15">
-        <v>4950</v>
-      </c>
-      <c r="C24" s="15">
-        <v>27500.000000000004</v>
-      </c>
-      <c r="D24" s="15">
-        <v>3850.0000000000005</v>
-      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="4">
         <f t="shared" si="1"/>
-        <v>36300.000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43009</v>
       </c>
-      <c r="B25" s="15">
-        <v>5500</v>
-      </c>
-      <c r="C25" s="15">
-        <v>27500.000000000004</v>
-      </c>
-      <c r="D25" s="15">
-        <v>4400</v>
-      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="4">
         <f t="shared" si="1"/>
-        <v>37400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43040</v>
       </c>
-      <c r="B26" s="15">
-        <v>5500</v>
-      </c>
-      <c r="C26" s="15">
-        <v>32000</v>
-      </c>
-      <c r="D26" s="15">
-        <v>4400</v>
-      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="4">
         <f t="shared" si="1"/>
-        <v>41900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43070</v>
       </c>
-      <c r="B27" s="15">
-        <v>8250</v>
-      </c>
-      <c r="C27" s="15">
-        <v>32000</v>
-      </c>
-      <c r="D27" s="15">
-        <v>4400</v>
-      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="4">
         <f t="shared" si="1"/>
-        <v>44650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
-      <c r="B28" s="15">
-        <v>5500</v>
-      </c>
-      <c r="C28" s="15">
-        <v>30800</v>
-      </c>
-      <c r="D28" s="15">
-        <v>4400</v>
-      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="4">
         <f t="shared" si="1"/>
-        <v>40700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43132</v>
       </c>
-      <c r="B29" s="15">
-        <v>5500</v>
-      </c>
-      <c r="C29" s="15">
-        <v>30800</v>
-      </c>
-      <c r="D29" s="15">
-        <v>4400</v>
-      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="4">
         <f t="shared" si="1"/>
-        <v>40700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43160</v>
       </c>
-      <c r="B30" s="15">
-        <v>5500</v>
-      </c>
-      <c r="C30" s="15">
-        <v>30800.000000000004</v>
-      </c>
-      <c r="D30" s="15">
-        <v>4400</v>
-      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="4">
         <f t="shared" si="1"/>
-        <v>40700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43191</v>
       </c>
-      <c r="B31" s="16">
-        <v>5500</v>
-      </c>
-      <c r="C31" s="15">
-        <v>33000</v>
-      </c>
-      <c r="D31" s="15">
-        <v>5500</v>
-      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="4">
         <f t="shared" si="1"/>
-        <v>44000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43221</v>
       </c>
-      <c r="B32" s="15">
-        <v>7150.0000000000009</v>
-      </c>
-      <c r="C32" s="15">
-        <v>33000</v>
-      </c>
-      <c r="D32" s="15">
-        <v>5500</v>
-      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="4">
         <f t="shared" si="1"/>
-        <v>45650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43252</v>
       </c>
-      <c r="B33" s="15">
-        <v>7150.0000000000009</v>
-      </c>
-      <c r="C33" s="15">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="24">
+        <v>43282</v>
+      </c>
+      <c r="B34" s="25">
+        <v>8000</v>
+      </c>
+      <c r="C34" s="25">
+        <v>10000</v>
+      </c>
+      <c r="D34" s="25">
+        <v>500</v>
+      </c>
+      <c r="E34" s="25">
+        <f t="shared" si="1"/>
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="24">
+        <v>43313</v>
+      </c>
+      <c r="B35" s="25">
+        <v>9000</v>
+      </c>
+      <c r="C35" s="25">
+        <v>11000</v>
+      </c>
+      <c r="D35" s="25">
+        <v>750</v>
+      </c>
+      <c r="E35" s="25">
+        <f t="shared" si="1"/>
+        <v>20750</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="24">
+        <v>43344</v>
+      </c>
+      <c r="B36" s="25">
+        <v>9000</v>
+      </c>
+      <c r="C36" s="25">
+        <v>12000</v>
+      </c>
+      <c r="D36" s="25">
+        <v>1000</v>
+      </c>
+      <c r="E36" s="25">
+        <f t="shared" si="1"/>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="24">
+        <v>43374</v>
+      </c>
+      <c r="B37" s="25">
+        <v>10000</v>
+      </c>
+      <c r="C37" s="25">
+        <v>13000</v>
+      </c>
+      <c r="D37" s="25">
+        <v>1250</v>
+      </c>
+      <c r="E37" s="25">
+        <f t="shared" si="1"/>
+        <v>24250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="24">
+        <v>43405</v>
+      </c>
+      <c r="B38" s="25">
+        <v>11400</v>
+      </c>
+      <c r="C38" s="25">
+        <v>14000</v>
+      </c>
+      <c r="D38" s="25">
+        <v>1500</v>
+      </c>
+      <c r="E38" s="25">
+        <f t="shared" si="1"/>
+        <v>26900</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="24">
+        <v>43435</v>
+      </c>
+      <c r="B39" s="25">
+        <v>17000</v>
+      </c>
+      <c r="C39" s="25">
+        <v>15000</v>
+      </c>
+      <c r="D39" s="25">
+        <v>1900</v>
+      </c>
+      <c r="E39" s="25">
+        <f t="shared" si="1"/>
+        <v>33900</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="25">
+        <v>11000</v>
+      </c>
+      <c r="C40" s="25">
+        <v>16000</v>
+      </c>
+      <c r="D40" s="25">
+        <v>2200</v>
+      </c>
+      <c r="E40" s="25">
+        <f t="shared" si="1"/>
+        <v>29200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="25">
+        <v>11000</v>
+      </c>
+      <c r="C41" s="25">
+        <v>17000</v>
+      </c>
+      <c r="D41" s="25">
+        <v>2200</v>
+      </c>
+      <c r="E41" s="25">
+        <f t="shared" si="1"/>
+        <v>30200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="25">
+        <v>12000</v>
+      </c>
+      <c r="C42" s="25">
+        <v>18000</v>
+      </c>
+      <c r="D42" s="25">
+        <v>3000</v>
+      </c>
+      <c r="E42" s="25">
+        <f t="shared" si="1"/>
         <v>33000</v>
       </c>
-      <c r="D33" s="15">
-        <v>5500</v>
-      </c>
-      <c r="E33" s="4">
-        <f t="shared" si="1"/>
-        <v>45650</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>43282</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>43313</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>43344</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>43374</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>43405</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="25">
+        <v>12000</v>
+      </c>
+      <c r="C43" s="25">
+        <v>20000</v>
+      </c>
+      <c r="D43" s="25">
+        <v>3200</v>
+      </c>
+      <c r="E43" s="25">
+        <f t="shared" si="1"/>
+        <v>35200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="25">
+        <v>17000</v>
+      </c>
+      <c r="C44" s="25">
+        <v>22000</v>
+      </c>
+      <c r="D44" s="25">
+        <v>3200</v>
+      </c>
+      <c r="E44" s="25">
+        <f t="shared" si="1"/>
+        <v>42200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="25">
+        <v>18000</v>
+      </c>
+      <c r="C45" s="25">
+        <v>22000</v>
+      </c>
+      <c r="D45" s="25">
+        <v>3400</v>
+      </c>
+      <c r="E45" s="25">
+        <f t="shared" si="1"/>
+        <v>43400</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3539,18 +4227,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="I38" sqref="I38:J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3647,487 +4337,649 @@
       <c r="A10" s="1">
         <v>42552</v>
       </c>
-      <c r="B10" s="15">
-        <v>18159.226050000001</v>
-      </c>
-      <c r="C10" s="15">
-        <v>28535.926650000005</v>
-      </c>
-      <c r="D10" s="15">
-        <v>5188.350300000001</v>
+      <c r="B10" s="11">
+        <v>2743</v>
+      </c>
+      <c r="C10" s="11">
+        <v>24683</v>
+      </c>
+      <c r="D10" s="11">
+        <v>3047</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10:E21" si="0">SUM(B10:D10)</f>
-        <v>51883.503000000004</v>
+        <f>SUM(B10:D10)</f>
+        <v>30473</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42583</v>
       </c>
-      <c r="B11" s="15">
-        <v>15683.93715</v>
-      </c>
-      <c r="C11" s="15">
-        <v>24646.186950000003</v>
-      </c>
-      <c r="D11" s="15">
-        <v>4481.1249000000007</v>
+      <c r="B11" s="11">
+        <v>2748</v>
+      </c>
+      <c r="C11" s="11">
+        <v>24732</v>
+      </c>
+      <c r="D11" s="11">
+        <v>3053</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>44811.249000000003</v>
+        <f t="shared" ref="E11:E21" si="0">SUM(B11:D11)</f>
+        <v>30533</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42614</v>
       </c>
-      <c r="B12" s="15">
-        <v>16093.732725</v>
-      </c>
-      <c r="C12" s="15">
-        <v>25290.151425000004</v>
-      </c>
-      <c r="D12" s="15">
-        <v>4598.2093500000001</v>
+      <c r="B12" s="11">
+        <v>2779</v>
+      </c>
+      <c r="C12" s="11">
+        <v>25007</v>
+      </c>
+      <c r="D12" s="11">
+        <v>3087</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>45982.093500000003</v>
+        <v>30873</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42644</v>
       </c>
-      <c r="B13" s="15">
-        <v>17180.672774999999</v>
-      </c>
-      <c r="C13" s="15">
-        <v>26998.200075000001</v>
-      </c>
-      <c r="D13" s="15">
-        <v>4908.7636499999999</v>
+      <c r="B13" s="11">
+        <v>2815</v>
+      </c>
+      <c r="C13" s="11">
+        <v>25335</v>
+      </c>
+      <c r="D13" s="11">
+        <v>3128</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
-        <v>49087.636500000001</v>
+        <v>31278</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42675</v>
       </c>
-      <c r="B14" s="15">
-        <v>16958.677049999998</v>
-      </c>
-      <c r="C14" s="15">
-        <v>26649.34965</v>
-      </c>
-      <c r="D14" s="15">
-        <v>4845.3362999999999</v>
+      <c r="B14" s="11">
+        <v>2826</v>
+      </c>
+      <c r="C14" s="11">
+        <v>25432</v>
+      </c>
+      <c r="D14" s="11">
+        <v>3140</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="0"/>
-        <v>48453.363000000005</v>
+        <v>31398</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42705</v>
       </c>
-      <c r="B15" s="15">
-        <v>16916.719574999999</v>
-      </c>
-      <c r="C15" s="15">
-        <v>26583.416475000002</v>
-      </c>
-      <c r="D15" s="15">
-        <v>4833.3484500000004</v>
+      <c r="B15" s="11">
+        <v>4633.8600000000006</v>
+      </c>
+      <c r="C15" s="11">
+        <v>26810</v>
+      </c>
+      <c r="D15" s="11">
+        <v>3310</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="0"/>
-        <v>48333.484499999999</v>
+        <v>34753.86</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42736</v>
       </c>
-      <c r="B16" s="15">
-        <v>15888.612599999999</v>
-      </c>
-      <c r="C16" s="15">
-        <v>24967.819800000001</v>
-      </c>
-      <c r="D16" s="15">
-        <v>4539.6036000000004</v>
+      <c r="B16" s="11">
+        <v>4648</v>
+      </c>
+      <c r="C16" s="11">
+        <v>26945</v>
+      </c>
+      <c r="D16" s="11">
+        <v>3327</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="0"/>
-        <v>45396.036</v>
+        <v>34920</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42767</v>
       </c>
-      <c r="B17" s="15">
-        <v>16653.064050000004</v>
-      </c>
-      <c r="C17" s="15">
-        <v>26169.100650000008</v>
-      </c>
-      <c r="D17" s="15">
-        <v>4758.0183000000015</v>
+      <c r="B17" s="11">
+        <v>4657.2400000000007</v>
+      </c>
+      <c r="C17" s="11">
+        <v>26999</v>
+      </c>
+      <c r="D17" s="11">
+        <v>3333</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="0"/>
-        <v>47580.183000000012</v>
+        <v>34989.240000000005</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42795</v>
       </c>
-      <c r="B18" s="15">
-        <v>15842.616299999998</v>
-      </c>
-      <c r="C18" s="15">
-        <v>24895.5399</v>
-      </c>
-      <c r="D18" s="15">
-        <v>4526.4618</v>
+      <c r="B18" s="11">
+        <v>4666.4800000000005</v>
+      </c>
+      <c r="C18" s="11">
+        <v>27077</v>
+      </c>
+      <c r="D18" s="11">
+        <v>3343</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="0"/>
-        <v>45264.617999999995</v>
+        <v>35086.479999999996</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42826</v>
       </c>
-      <c r="B19" s="16">
-        <v>15242</v>
-      </c>
-      <c r="C19" s="15">
-        <v>23952</v>
-      </c>
-      <c r="D19" s="15">
-        <v>4355</v>
+      <c r="B19" s="12">
+        <v>3931</v>
+      </c>
+      <c r="C19" s="11">
+        <v>22878</v>
+      </c>
+      <c r="D19" s="11">
+        <v>2825</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="0"/>
-        <v>43549</v>
+        <v>29634</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42856</v>
       </c>
-      <c r="B20" s="15">
-        <v>18311.85615</v>
-      </c>
-      <c r="C20" s="15">
-        <v>28775.773950000003</v>
-      </c>
-      <c r="D20" s="15">
-        <v>5231.9589000000005</v>
+      <c r="B20" s="11">
+        <v>4707.5</v>
+      </c>
+      <c r="C20" s="11">
+        <v>27259</v>
+      </c>
+      <c r="D20" s="11">
+        <v>3365</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="0"/>
-        <v>52319.589</v>
+        <v>35331.5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42887</v>
       </c>
-      <c r="B21" s="15">
-        <v>16767.628499999999</v>
-      </c>
-      <c r="C21" s="15">
-        <v>26349.130500000003</v>
-      </c>
-      <c r="D21" s="15">
-        <v>4790.7510000000002</v>
+      <c r="B21" s="11">
+        <v>4711.42</v>
+      </c>
+      <c r="C21" s="11">
+        <v>27259</v>
+      </c>
+      <c r="D21" s="11">
+        <v>3365</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="0"/>
-        <v>47907.510000000009</v>
+        <v>35335.42</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42917</v>
       </c>
-      <c r="B22" s="15">
-        <v>11000</v>
-      </c>
-      <c r="C22" s="15">
-        <v>36300</v>
-      </c>
-      <c r="D22" s="15">
-        <v>0</v>
+      <c r="B22" s="11">
+        <v>4950</v>
+      </c>
+      <c r="C22" s="11">
+        <v>27500.000000000004</v>
+      </c>
+      <c r="D22" s="11">
+        <v>3850.0000000000005</v>
       </c>
       <c r="E22" s="4">
         <f>SUM(B22:D22)</f>
-        <v>47300</v>
+        <v>36300.000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42948</v>
       </c>
-      <c r="B23" s="15">
-        <v>11000</v>
-      </c>
-      <c r="C23" s="15">
-        <v>36300</v>
-      </c>
-      <c r="D23" s="15">
-        <v>0</v>
+      <c r="B23" s="11">
+        <v>4950</v>
+      </c>
+      <c r="C23" s="11">
+        <v>27500.000000000004</v>
+      </c>
+      <c r="D23" s="11">
+        <v>3850.0000000000005</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" ref="E23:E33" si="1">SUM(B23:D23)</f>
-        <v>47300</v>
+        <f t="shared" ref="E23:E45" si="1">SUM(B23:D23)</f>
+        <v>36300.000000000007</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>42979</v>
       </c>
-      <c r="B24" s="15">
-        <v>11000</v>
-      </c>
-      <c r="C24" s="15">
-        <v>36300</v>
-      </c>
-      <c r="D24" s="15">
-        <v>0</v>
+      <c r="B24" s="11">
+        <v>4950</v>
+      </c>
+      <c r="C24" s="11">
+        <v>27500.000000000004</v>
+      </c>
+      <c r="D24" s="11">
+        <v>3850.0000000000005</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="1"/>
-        <v>47300</v>
+        <v>36300.000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43009</v>
       </c>
-      <c r="B25" s="15">
-        <v>12100.000000000002</v>
-      </c>
-      <c r="C25" s="15">
-        <v>36300</v>
-      </c>
-      <c r="D25" s="15">
-        <v>0</v>
+      <c r="B25" s="11">
+        <v>5500</v>
+      </c>
+      <c r="C25" s="11">
+        <v>27500.000000000004</v>
+      </c>
+      <c r="D25" s="11">
+        <v>4400</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="1"/>
-        <v>48400</v>
+        <v>37400</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43040</v>
       </c>
-      <c r="B26" s="15">
-        <v>12100.000000000002</v>
-      </c>
-      <c r="C26" s="15">
-        <v>38500</v>
-      </c>
-      <c r="D26" s="15">
-        <v>0</v>
+      <c r="B26" s="11">
+        <v>5500</v>
+      </c>
+      <c r="C26" s="11">
+        <v>32000</v>
+      </c>
+      <c r="D26" s="11">
+        <v>4400</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="1"/>
-        <v>50600</v>
+        <v>41900</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43070</v>
       </c>
-      <c r="B27" s="15">
-        <v>14300.000000000002</v>
-      </c>
-      <c r="C27" s="15">
-        <v>38500</v>
-      </c>
-      <c r="D27" s="15">
-        <v>0</v>
+      <c r="B27" s="11">
+        <v>8250</v>
+      </c>
+      <c r="C27" s="11">
+        <v>32000</v>
+      </c>
+      <c r="D27" s="11">
+        <v>4400</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="1"/>
-        <v>52800</v>
+        <v>44650</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43101</v>
       </c>
-      <c r="B28" s="15">
-        <v>11000</v>
-      </c>
-      <c r="C28" s="15">
-        <v>36300</v>
-      </c>
-      <c r="D28" s="15">
-        <v>0</v>
+      <c r="B28" s="11">
+        <v>5500</v>
+      </c>
+      <c r="C28" s="11">
+        <v>30800</v>
+      </c>
+      <c r="D28" s="11">
+        <v>4400</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="1"/>
-        <v>47300</v>
+        <v>40700</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43132</v>
       </c>
-      <c r="B29" s="15">
-        <v>12100.000000000002</v>
-      </c>
-      <c r="C29" s="15">
-        <v>36300</v>
-      </c>
-      <c r="D29" s="15">
-        <v>0</v>
+      <c r="B29" s="11">
+        <v>5500</v>
+      </c>
+      <c r="C29" s="11">
+        <v>30800</v>
+      </c>
+      <c r="D29" s="11">
+        <v>4400</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="1"/>
-        <v>48400</v>
+        <v>40700</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43160</v>
       </c>
-      <c r="B30" s="15">
-        <v>12100.000000000002</v>
-      </c>
-      <c r="C30" s="15">
-        <v>38500</v>
-      </c>
-      <c r="D30" s="15">
-        <v>0</v>
+      <c r="B30" s="11">
+        <v>5500</v>
+      </c>
+      <c r="C30" s="11">
+        <v>30800.000000000004</v>
+      </c>
+      <c r="D30" s="11">
+        <v>4400</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="1"/>
-        <v>50600</v>
+        <v>40700</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43191</v>
       </c>
-      <c r="B31" s="16">
-        <v>13200.000000000002</v>
-      </c>
-      <c r="C31" s="15">
-        <v>38500</v>
-      </c>
-      <c r="D31" s="15">
-        <v>0</v>
+      <c r="B31" s="12">
+        <v>5500</v>
+      </c>
+      <c r="C31" s="11">
+        <v>33000</v>
+      </c>
+      <c r="D31" s="11">
+        <v>5500</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" si="1"/>
-        <v>51700</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43221</v>
       </c>
-      <c r="B32" s="15">
-        <v>14300.000000000002</v>
-      </c>
-      <c r="C32" s="15">
-        <v>40150</v>
-      </c>
-      <c r="D32" s="15">
-        <v>0</v>
+      <c r="B32" s="11">
+        <v>7150.0000000000009</v>
+      </c>
+      <c r="C32" s="11">
+        <v>33000</v>
+      </c>
+      <c r="D32" s="11">
+        <v>5500</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" si="1"/>
-        <v>54450</v>
+        <v>45650</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43252</v>
       </c>
-      <c r="B33" s="15">
-        <v>14300.000000000002</v>
-      </c>
-      <c r="C33" s="15">
-        <v>40150</v>
-      </c>
-      <c r="D33" s="15">
-        <v>0</v>
+      <c r="B33" s="11">
+        <v>7150.0000000000009</v>
+      </c>
+      <c r="C33" s="11">
+        <v>33000</v>
+      </c>
+      <c r="D33" s="11">
+        <v>5500</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" si="1"/>
-        <v>54450</v>
+        <v>45650</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="24">
         <v>43282</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="B34" s="25">
+        <v>4000</v>
+      </c>
+      <c r="C34" s="25">
+        <v>26000</v>
+      </c>
+      <c r="D34" s="25">
+        <v>4500</v>
+      </c>
+      <c r="E34" s="25">
+        <f t="shared" si="1"/>
+        <v>34500</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="24">
         <v>43313</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="B35" s="25">
+        <v>4000</v>
+      </c>
+      <c r="C35" s="25">
+        <v>28000</v>
+      </c>
+      <c r="D35" s="25">
+        <v>4500</v>
+      </c>
+      <c r="E35" s="25">
+        <f t="shared" si="1"/>
+        <v>36500</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="24">
         <v>43344</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="B36" s="25">
+        <v>5000</v>
+      </c>
+      <c r="C36" s="25">
+        <v>28000</v>
+      </c>
+      <c r="D36" s="25">
+        <v>5000</v>
+      </c>
+      <c r="E36" s="25">
+        <f t="shared" si="1"/>
+        <v>38000</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="24">
         <v>43374</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="B37" s="25">
+        <v>5000</v>
+      </c>
+      <c r="C37" s="25">
+        <v>28000</v>
+      </c>
+      <c r="D37" s="25">
+        <v>5000</v>
+      </c>
+      <c r="E37" s="25">
+        <f t="shared" si="1"/>
+        <v>38000</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="24">
         <v>43405</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="B38" s="25">
+        <v>6000</v>
+      </c>
+      <c r="C38" s="25">
+        <v>30000</v>
+      </c>
+      <c r="D38" s="25">
+        <v>6000</v>
+      </c>
+      <c r="E38" s="25">
+        <f t="shared" si="1"/>
+        <v>42000</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39" s="24">
         <v>43435</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="B39" s="25">
+        <v>7000</v>
+      </c>
+      <c r="C39" s="25">
+        <v>27000</v>
+      </c>
+      <c r="D39" s="25">
+        <v>6000</v>
+      </c>
+      <c r="E39" s="25">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="25">
+        <v>5000</v>
+      </c>
+      <c r="C40" s="25">
+        <v>25000</v>
+      </c>
+      <c r="D40" s="25">
+        <v>5000</v>
+      </c>
+      <c r="E40" s="25">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="25">
+        <v>5000</v>
+      </c>
+      <c r="C41" s="25">
+        <v>25000</v>
+      </c>
+      <c r="D41" s="25">
+        <v>5000</v>
+      </c>
+      <c r="E41" s="25">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="25">
+        <v>5000</v>
+      </c>
+      <c r="C42" s="25">
+        <v>26000</v>
+      </c>
+      <c r="D42" s="25">
+        <v>6000</v>
+      </c>
+      <c r="E42" s="25">
+        <f t="shared" si="1"/>
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="25">
+        <v>5000</v>
+      </c>
+      <c r="C43" s="25">
+        <v>26000</v>
+      </c>
+      <c r="D43" s="25">
+        <v>6000</v>
+      </c>
+      <c r="E43" s="25">
+        <f t="shared" si="1"/>
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="25">
+        <v>6000</v>
+      </c>
+      <c r="C44" s="25">
+        <v>28000</v>
+      </c>
+      <c r="D44" s="25">
+        <v>6000</v>
+      </c>
+      <c r="E44" s="25">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="25">
+        <v>6000</v>
+      </c>
+      <c r="C45" s="25">
+        <v>28000</v>
+      </c>
+      <c r="D45" s="25">
+        <v>6000</v>
+      </c>
+      <c r="E45" s="25">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4135,20 +4987,780 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42309</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42401</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42430</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42461</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42491</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42522</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42552</v>
+      </c>
+      <c r="B10" s="11">
+        <v>18159.226050000001</v>
+      </c>
+      <c r="C10" s="11">
+        <v>28535.926650000005</v>
+      </c>
+      <c r="D10" s="11">
+        <v>5188.350300000001</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" ref="E10:E21" si="0">SUM(B10:D10)</f>
+        <v>51883.503000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42583</v>
+      </c>
+      <c r="B11" s="11">
+        <v>15683.93715</v>
+      </c>
+      <c r="C11" s="11">
+        <v>24646.186950000003</v>
+      </c>
+      <c r="D11" s="11">
+        <v>4481.1249000000007</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>44811.249000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42614</v>
+      </c>
+      <c r="B12" s="11">
+        <v>16093.732725</v>
+      </c>
+      <c r="C12" s="11">
+        <v>25290.151425000004</v>
+      </c>
+      <c r="D12" s="11">
+        <v>4598.2093500000001</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>45982.093500000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42644</v>
+      </c>
+      <c r="B13" s="11">
+        <v>17180.672774999999</v>
+      </c>
+      <c r="C13" s="11">
+        <v>26998.200075000001</v>
+      </c>
+      <c r="D13" s="11">
+        <v>4908.7636499999999</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>49087.636500000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42675</v>
+      </c>
+      <c r="B14" s="11">
+        <v>16958.677049999998</v>
+      </c>
+      <c r="C14" s="11">
+        <v>26649.34965</v>
+      </c>
+      <c r="D14" s="11">
+        <v>4845.3362999999999</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>48453.363000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42705</v>
+      </c>
+      <c r="B15" s="11">
+        <v>16916.719574999999</v>
+      </c>
+      <c r="C15" s="11">
+        <v>26583.416475000002</v>
+      </c>
+      <c r="D15" s="11">
+        <v>4833.3484500000004</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>48333.484499999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="11">
+        <v>15888.612599999999</v>
+      </c>
+      <c r="C16" s="11">
+        <v>24967.819800000001</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4539.6036000000004</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>45396.036</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>42767</v>
+      </c>
+      <c r="B17" s="11">
+        <v>16653.064050000004</v>
+      </c>
+      <c r="C17" s="11">
+        <v>26169.100650000008</v>
+      </c>
+      <c r="D17" s="11">
+        <v>4758.0183000000015</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>47580.183000000012</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>42795</v>
+      </c>
+      <c r="B18" s="11">
+        <v>15842.616299999998</v>
+      </c>
+      <c r="C18" s="11">
+        <v>24895.5399</v>
+      </c>
+      <c r="D18" s="11">
+        <v>4526.4618</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="0"/>
+        <v>45264.617999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B19" s="12">
+        <v>15242</v>
+      </c>
+      <c r="C19" s="11">
+        <v>23952</v>
+      </c>
+      <c r="D19" s="11">
+        <v>4355</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>43549</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>42856</v>
+      </c>
+      <c r="B20" s="11">
+        <v>18311.85615</v>
+      </c>
+      <c r="C20" s="11">
+        <v>28775.773950000003</v>
+      </c>
+      <c r="D20" s="11">
+        <v>5231.9589000000005</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>52319.589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>42887</v>
+      </c>
+      <c r="B21" s="11">
+        <v>16767.628499999999</v>
+      </c>
+      <c r="C21" s="11">
+        <v>26349.130500000003</v>
+      </c>
+      <c r="D21" s="11">
+        <v>4790.7510000000002</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>47907.510000000009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B22" s="11">
+        <v>11000</v>
+      </c>
+      <c r="C22" s="11">
+        <v>36300</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <f>SUM(B22:D22)</f>
+        <v>47300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>42948</v>
+      </c>
+      <c r="B23" s="11">
+        <v>11000</v>
+      </c>
+      <c r="C23" s="11">
+        <v>36300</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" ref="E23:E45" si="1">SUM(B23:D23)</f>
+        <v>47300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>42979</v>
+      </c>
+      <c r="B24" s="11">
+        <v>11000</v>
+      </c>
+      <c r="C24" s="11">
+        <v>36300</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="1"/>
+        <v>47300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43009</v>
+      </c>
+      <c r="B25" s="11">
+        <v>12100.000000000002</v>
+      </c>
+      <c r="C25" s="11">
+        <v>36300</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="1"/>
+        <v>48400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43040</v>
+      </c>
+      <c r="B26" s="11">
+        <v>12100.000000000002</v>
+      </c>
+      <c r="C26" s="11">
+        <v>38500</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="1"/>
+        <v>50600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43070</v>
+      </c>
+      <c r="B27" s="11">
+        <v>14300.000000000002</v>
+      </c>
+      <c r="C27" s="11">
+        <v>38500</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="1"/>
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B28" s="11">
+        <v>11000</v>
+      </c>
+      <c r="C28" s="11">
+        <v>36300</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="1"/>
+        <v>47300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43132</v>
+      </c>
+      <c r="B29" s="11">
+        <v>12100.000000000002</v>
+      </c>
+      <c r="C29" s="11">
+        <v>36300</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="1"/>
+        <v>48400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43160</v>
+      </c>
+      <c r="B30" s="11">
+        <v>12100.000000000002</v>
+      </c>
+      <c r="C30" s="11">
+        <v>38500</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="1"/>
+        <v>50600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B31" s="12">
+        <v>13200.000000000002</v>
+      </c>
+      <c r="C31" s="11">
+        <v>38500</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="1"/>
+        <v>51700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B32" s="11">
+        <v>14300.000000000002</v>
+      </c>
+      <c r="C32" s="11">
+        <v>40150</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="1"/>
+        <v>54450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B33" s="11">
+        <v>14300.000000000002</v>
+      </c>
+      <c r="C33" s="11">
+        <v>40150</v>
+      </c>
+      <c r="D33" s="11">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="1"/>
+        <v>54450</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="24">
+        <v>43282</v>
+      </c>
+      <c r="B34" s="25">
+        <v>8000</v>
+      </c>
+      <c r="C34" s="25">
+        <v>32000</v>
+      </c>
+      <c r="D34" s="25">
+        <v>2000</v>
+      </c>
+      <c r="E34" s="25">
+        <f t="shared" si="1"/>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="24">
+        <v>43313</v>
+      </c>
+      <c r="B35" s="25">
+        <v>8000</v>
+      </c>
+      <c r="C35" s="25">
+        <v>32000</v>
+      </c>
+      <c r="D35" s="25">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="25">
+        <f t="shared" si="1"/>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="24">
+        <v>43344</v>
+      </c>
+      <c r="B36" s="25">
+        <v>7500</v>
+      </c>
+      <c r="C36" s="25">
+        <v>32000</v>
+      </c>
+      <c r="D36" s="25">
+        <v>2500</v>
+      </c>
+      <c r="E36" s="25">
+        <f t="shared" si="1"/>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="24">
+        <v>43374</v>
+      </c>
+      <c r="B37" s="25">
+        <v>10000</v>
+      </c>
+      <c r="C37" s="25">
+        <v>34000</v>
+      </c>
+      <c r="D37" s="25">
+        <v>2500</v>
+      </c>
+      <c r="E37" s="25">
+        <f t="shared" si="1"/>
+        <v>46500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="24">
+        <v>43405</v>
+      </c>
+      <c r="B38" s="25">
+        <v>9500</v>
+      </c>
+      <c r="C38" s="25">
+        <v>40000</v>
+      </c>
+      <c r="D38" s="25">
+        <v>2500</v>
+      </c>
+      <c r="E38" s="25">
+        <f t="shared" si="1"/>
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="24">
+        <v>43435</v>
+      </c>
+      <c r="B39" s="25">
+        <v>13000</v>
+      </c>
+      <c r="C39" s="25">
+        <v>40000</v>
+      </c>
+      <c r="D39" s="25">
+        <v>3000</v>
+      </c>
+      <c r="E39" s="25">
+        <f t="shared" si="1"/>
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="25">
+        <v>9000</v>
+      </c>
+      <c r="C40" s="25">
+        <v>38000</v>
+      </c>
+      <c r="D40" s="25">
+        <v>2500</v>
+      </c>
+      <c r="E40" s="25">
+        <f t="shared" si="1"/>
+        <v>49500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="25">
+        <v>8500</v>
+      </c>
+      <c r="C41" s="25">
+        <v>36000</v>
+      </c>
+      <c r="D41" s="25">
+        <v>2500</v>
+      </c>
+      <c r="E41" s="25">
+        <f t="shared" si="1"/>
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="25">
+        <v>9000</v>
+      </c>
+      <c r="C42" s="25">
+        <v>36000</v>
+      </c>
+      <c r="D42" s="25">
+        <v>3000</v>
+      </c>
+      <c r="E42" s="25">
+        <f t="shared" si="1"/>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="25">
+        <v>10000</v>
+      </c>
+      <c r="C43" s="25">
+        <v>35000</v>
+      </c>
+      <c r="D43" s="25">
+        <v>3500</v>
+      </c>
+      <c r="E43" s="25">
+        <f t="shared" si="1"/>
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="25">
+        <v>10000</v>
+      </c>
+      <c r="C44" s="25">
+        <v>34000</v>
+      </c>
+      <c r="D44" s="25">
+        <v>3500</v>
+      </c>
+      <c r="E44" s="25">
+        <f t="shared" si="1"/>
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="25">
+        <v>10000</v>
+      </c>
+      <c r="C45" s="25">
+        <v>32000</v>
+      </c>
+      <c r="D45" s="25">
+        <v>4000</v>
+      </c>
+      <c r="E45" s="25">
+        <f t="shared" si="1"/>
+        <v>46000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H32" sqref="H32:H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4254,13 +5866,13 @@
       <c r="A11" s="1">
         <v>42583</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="14">
         <v>6271.188000000001</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="14">
         <v>7233.8640000000005</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="14">
         <v>1014.9480000000002</v>
       </c>
       <c r="E11" s="4">
@@ -4272,13 +5884,13 @@
       <c r="A12" s="1">
         <v>42614</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="14">
         <v>8779.6632000000009</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="14">
         <v>10127.409599999999</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="14">
         <v>1420.9272000000001</v>
       </c>
       <c r="E12" s="4">
@@ -4290,13 +5902,13 @@
       <c r="A13" s="1">
         <v>42644</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="14">
         <v>10033.900800000001</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="14">
         <v>11574.182400000002</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="14">
         <v>1623.9168000000004</v>
       </c>
       <c r="E13" s="4">
@@ -4308,13 +5920,13 @@
       <c r="A14" s="1">
         <v>42675</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="14">
         <v>11288</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="14">
         <v>13021</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="14">
         <v>1827</v>
       </c>
       <c r="E14" s="4">
@@ -4326,13 +5938,13 @@
       <c r="A15" s="1">
         <v>42705</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="14">
         <v>12542.376000000002</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="14">
         <v>14467.728000000001</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="14">
         <v>2029.8960000000004</v>
       </c>
       <c r="E15" s="4">
@@ -4344,13 +5956,13 @@
       <c r="A16" s="1">
         <v>42736</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="14">
         <v>11288.138400000002</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="14">
         <v>13020.9552</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="14">
         <v>1826.9064000000003</v>
       </c>
       <c r="E16" s="4">
@@ -4362,13 +5974,13 @@
       <c r="A17" s="1">
         <v>42767</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="14">
         <v>13796.613600000002</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="14">
         <v>15914.500800000002</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="14">
         <v>2232.8856000000005</v>
       </c>
       <c r="E17" s="4">
@@ -4380,13 +5992,13 @@
       <c r="A18" s="1">
         <v>42795</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="14">
         <v>13796.613600000002</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="14">
         <v>15914.500800000002</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="14">
         <v>2232.8856000000005</v>
       </c>
       <c r="E18" s="4">
@@ -4398,13 +6010,13 @@
       <c r="A19" s="1">
         <v>42826</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="15">
         <v>11589</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="14">
         <v>13368</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="14">
         <v>1876</v>
       </c>
       <c r="E19" s="4">
@@ -4416,13 +6028,13 @@
       <c r="A20" s="1">
         <v>42856</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="14">
         <v>13796.613600000002</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="14">
         <v>15914.500800000002</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="14">
         <v>2232.8856000000005</v>
       </c>
       <c r="E20" s="4">
@@ -4434,13 +6046,13 @@
       <c r="A21" s="1">
         <v>42887</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="14">
         <v>13796.613600000002</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="14">
         <v>15914.500800000002</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="14">
         <v>2232.8856000000005</v>
       </c>
       <c r="E21" s="4">
@@ -4452,13 +6064,13 @@
       <c r="A22" s="1">
         <v>42917</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="14">
         <v>12100.000000000002</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="14">
         <v>22000</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="14">
         <v>825.00000000000011</v>
       </c>
       <c r="E22" s="4">
@@ -4470,17 +6082,17 @@
       <c r="A23" s="1">
         <v>42948</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="14">
         <v>13200.000000000002</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="14">
         <v>22000</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="14">
         <v>825.00000000000011</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" ref="E23:E33" si="1">SUM(B23:D23)</f>
+        <f t="shared" ref="E23:E45" si="1">SUM(B23:D23)</f>
         <v>36025</v>
       </c>
     </row>
@@ -4488,13 +6100,13 @@
       <c r="A24" s="1">
         <v>42979</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="14">
         <v>12100.000000000002</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="14">
         <v>24200.000000000004</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="14">
         <v>825.00000000000011</v>
       </c>
       <c r="E24" s="4">
@@ -4506,13 +6118,13 @@
       <c r="A25" s="1">
         <v>43009</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="14">
         <v>12100.000000000002</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="14">
         <v>29040.000000000004</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="14">
         <v>2400</v>
       </c>
       <c r="E25" s="4">
@@ -4524,13 +6136,13 @@
       <c r="A26" s="1">
         <v>43040</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="14">
         <v>12100.000000000002</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="14">
         <v>31680.000000000004</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="14">
         <v>2500</v>
       </c>
       <c r="E26" s="4">
@@ -4542,13 +6154,13 @@
       <c r="A27" s="1">
         <v>43070</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="14">
         <v>18040</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="14">
         <v>34320</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="14">
         <v>2800</v>
       </c>
       <c r="E27" s="4">
@@ -4560,13 +6172,13 @@
       <c r="A28" s="1">
         <v>43101</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="14">
         <v>13200.000000000002</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="14">
         <v>31680.000000000004</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="14">
         <v>2400</v>
       </c>
       <c r="E28" s="4">
@@ -4578,13 +6190,13 @@
       <c r="A29" s="1">
         <v>43132</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="14">
         <v>13200.000000000002</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="14">
         <v>31680.000000000004</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="14">
         <v>2800</v>
       </c>
       <c r="E29" s="4">
@@ -4596,13 +6208,13 @@
       <c r="A30" s="1">
         <v>43160</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="14">
         <v>14300.000000000002</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="14">
         <v>33000</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="14">
         <v>2800</v>
       </c>
       <c r="E30" s="4">
@@ -4614,13 +6226,13 @@
       <c r="A31" s="1">
         <v>43191</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="15">
         <v>14300.000000000002</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="14">
         <v>33000</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="14">
         <v>3200</v>
       </c>
       <c r="E31" s="4">
@@ -4632,13 +6244,13 @@
       <c r="A32" s="1">
         <v>43221</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="14">
         <v>16500</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="14">
         <v>34320</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="14">
         <v>3200</v>
       </c>
       <c r="E32" s="4">
@@ -4650,94 +6262,258 @@
       <c r="A33" s="1">
         <v>43252</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="11">
         <v>16500</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="11">
         <v>34320</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="11">
         <v>3200</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="23">
         <f t="shared" si="1"/>
         <v>54020</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="24">
         <v>43282</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="B34" s="25">
+        <v>11000</v>
+      </c>
+      <c r="C34" s="25">
+        <v>32000</v>
+      </c>
+      <c r="D34" s="25">
+        <v>3000</v>
+      </c>
+      <c r="E34" s="25">
+        <f t="shared" si="1"/>
+        <v>46000</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="24">
         <v>43313</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="B35" s="25">
+        <v>12000</v>
+      </c>
+      <c r="C35" s="25">
+        <v>32000</v>
+      </c>
+      <c r="D35" s="25">
+        <v>3000</v>
+      </c>
+      <c r="E35" s="25">
+        <f t="shared" si="1"/>
+        <v>47000</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="24">
         <v>43344</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="B36" s="25">
+        <v>10000</v>
+      </c>
+      <c r="C36" s="25">
+        <v>35000</v>
+      </c>
+      <c r="D36" s="25">
+        <v>3000</v>
+      </c>
+      <c r="E36" s="25">
+        <f t="shared" si="1"/>
+        <v>48000</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="24">
         <v>43374</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="B37" s="25">
+        <v>10000</v>
+      </c>
+      <c r="C37" s="25">
+        <v>35000</v>
+      </c>
+      <c r="D37" s="25">
+        <v>3500</v>
+      </c>
+      <c r="E37" s="25">
+        <f t="shared" si="1"/>
+        <v>48500</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="24">
         <v>43405</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="B38" s="25">
+        <v>13000</v>
+      </c>
+      <c r="C38" s="25">
+        <v>32000</v>
+      </c>
+      <c r="D38" s="25">
+        <v>3500</v>
+      </c>
+      <c r="E38" s="25">
+        <f t="shared" si="1"/>
+        <v>48500</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39" s="24">
         <v>43435</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="B39" s="25">
+        <v>15000</v>
+      </c>
+      <c r="C39" s="25">
+        <v>38000</v>
+      </c>
+      <c r="D39" s="25">
+        <v>3500</v>
+      </c>
+      <c r="E39" s="25">
+        <f t="shared" si="1"/>
+        <v>56500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="25">
+        <v>10000</v>
+      </c>
+      <c r="C40" s="25">
+        <v>32000</v>
+      </c>
+      <c r="D40" s="25">
+        <v>3500</v>
+      </c>
+      <c r="E40" s="25">
+        <f t="shared" si="1"/>
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="25">
+        <v>11000</v>
+      </c>
+      <c r="C41" s="25">
+        <v>32000</v>
+      </c>
+      <c r="D41" s="25">
+        <v>3500</v>
+      </c>
+      <c r="E41" s="25">
+        <f t="shared" si="1"/>
+        <v>46500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="25">
+        <v>13000</v>
+      </c>
+      <c r="C42" s="25">
+        <v>33000</v>
+      </c>
+      <c r="D42" s="25">
+        <v>4000</v>
+      </c>
+      <c r="E42" s="25">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="25">
+        <v>13000</v>
+      </c>
+      <c r="C43" s="25">
+        <v>33000</v>
+      </c>
+      <c r="D43" s="25">
+        <v>4000</v>
+      </c>
+      <c r="E43" s="25">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="25">
+        <v>15000</v>
+      </c>
+      <c r="C44" s="25">
+        <v>33000</v>
+      </c>
+      <c r="D44" s="25">
+        <v>4000</v>
+      </c>
+      <c r="E44" s="25">
+        <f t="shared" si="1"/>
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="25">
+        <v>15000</v>
+      </c>
+      <c r="C45" s="25">
+        <v>33000</v>
+      </c>
+      <c r="D45" s="25">
+        <v>4500</v>
+      </c>
+      <c r="E45" s="25">
+        <f t="shared" si="1"/>
+        <v>52500</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="H32" sqref="H32:I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4833,13 +6609,13 @@
       <c r="A10" s="1">
         <v>42552</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="16">
         <v>11863.68</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="16">
         <v>17314.560000000001</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="16">
         <v>3206.4</v>
       </c>
       <c r="E10" s="4">
@@ -4851,13 +6627,13 @@
       <c r="A11" s="1">
         <v>42583</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="16">
         <v>11863.68</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="16">
         <v>17314.560000000001</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="16">
         <v>3206.4</v>
       </c>
       <c r="E11" s="4">
@@ -4869,13 +6645,13 @@
       <c r="A12" s="1">
         <v>42614</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="16">
         <v>11863.68</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="16">
         <v>17314.560000000001</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="16">
         <v>3206.4</v>
       </c>
       <c r="E12" s="4">
@@ -4887,13 +6663,13 @@
       <c r="A13" s="1">
         <v>42644</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="16">
         <v>14225.76</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="16">
         <v>20761.920000000002</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="16">
         <v>3844.8</v>
       </c>
       <c r="E13" s="4">
@@ -4905,13 +6681,13 @@
       <c r="A14" s="1">
         <v>42675</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="16">
         <v>14226</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="16">
         <v>20762</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="16">
         <v>3845</v>
       </c>
       <c r="E14" s="4">
@@ -4923,13 +6699,13 @@
       <c r="A15" s="1">
         <v>42705</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="16">
         <v>17096.96</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="16">
         <v>24952.320000000003</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="16">
         <v>4620.8</v>
       </c>
       <c r="E15" s="4">
@@ -4941,13 +6717,13 @@
       <c r="A16" s="1">
         <v>42736</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="16">
         <v>14225.76</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="16">
         <v>20761.920000000002</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="16">
         <v>3844.8</v>
       </c>
       <c r="E16" s="4">
@@ -4959,13 +6735,13 @@
       <c r="A17" s="1">
         <v>42767</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="16">
         <v>17096.96</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="16">
         <v>24952.320000000003</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="16">
         <v>4620.8</v>
       </c>
       <c r="E17" s="4">
@@ -4977,13 +6753,13 @@
       <c r="A18" s="1">
         <v>42795</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="16">
         <v>17096.96</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="16">
         <v>24952.320000000003</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="16">
         <v>4620.8</v>
       </c>
       <c r="E18" s="4">
@@ -4995,13 +6771,13 @@
       <c r="A19" s="1">
         <v>42826</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="17">
         <v>11950</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="16">
         <v>17440</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="16">
         <v>3230</v>
       </c>
       <c r="E19" s="4">
@@ -5013,13 +6789,13 @@
       <c r="A20" s="1">
         <v>42856</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="16">
         <v>14225.76</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="16">
         <v>20761.920000000002</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="16">
         <v>3844.8</v>
       </c>
       <c r="E20" s="4">
@@ -5031,13 +6807,13 @@
       <c r="A21" s="1">
         <v>42887</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="16">
         <v>14225.76</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="16">
         <v>20761.920000000002</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="16">
         <v>3844.8</v>
       </c>
       <c r="E21" s="4">
@@ -5049,13 +6825,13 @@
       <c r="A22" s="1">
         <v>42917</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="16">
         <v>16940</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="16">
         <v>27500.000000000004</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="16">
         <v>6050.0000000000009</v>
       </c>
       <c r="E22" s="4">
@@ -5067,17 +6843,17 @@
       <c r="A23" s="1">
         <v>42948</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="16">
         <v>14300.000000000002</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="16">
         <v>27500.000000000004</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="16">
         <v>6050.0000000000009</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" ref="E23:E33" si="1">SUM(B23:D23)</f>
+        <f t="shared" ref="E23:E45" si="1">SUM(B23:D23)</f>
         <v>47850.000000000007</v>
       </c>
     </row>
@@ -5085,13 +6861,13 @@
       <c r="A24" s="1">
         <v>42979</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="16">
         <v>14300.000000000002</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="16">
         <v>28600.000000000004</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="16">
         <v>6600.0000000000009</v>
       </c>
       <c r="E24" s="4">
@@ -5103,13 +6879,13 @@
       <c r="A25" s="1">
         <v>43009</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="16">
         <v>14300.000000000002</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="16">
         <v>29700.000000000004</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="16">
         <v>6600.0000000000009</v>
       </c>
       <c r="E25" s="4">
@@ -5121,13 +6897,13 @@
       <c r="A26" s="1">
         <v>43040</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="16">
         <v>14300.000000000002</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="16">
         <v>31900.000000000004</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="16">
         <v>7150.0000000000009</v>
       </c>
       <c r="E26" s="4">
@@ -5139,13 +6915,13 @@
       <c r="A27" s="1">
         <v>43070</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="16">
         <v>19800</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="16">
         <v>33000</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="16">
         <v>7150.0000000000009</v>
       </c>
       <c r="E27" s="4">
@@ -5157,13 +6933,13 @@
       <c r="A28" s="1">
         <v>43101</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="16">
         <v>12100.000000000002</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="16">
         <v>27500.000000000004</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="16">
         <v>11000</v>
       </c>
       <c r="E28" s="4">
@@ -5175,13 +6951,13 @@
       <c r="A29" s="1">
         <v>43132</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="16">
         <v>14300.000000000002</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="16">
         <v>28600.000000000004</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="16">
         <v>7150.0000000000009</v>
       </c>
       <c r="E29" s="4">
@@ -5193,13 +6969,13 @@
       <c r="A30" s="1">
         <v>43160</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="16">
         <v>14850.000000000002</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="16">
         <v>29700.000000000004</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="16">
         <v>7150.0000000000009</v>
       </c>
       <c r="E30" s="4">
@@ -5211,13 +6987,13 @@
       <c r="A31" s="1">
         <v>43191</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="17">
         <v>16500</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="16">
         <v>29700.000000000004</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="16">
         <v>7700.0000000000009</v>
       </c>
       <c r="E31" s="4">
@@ -5229,13 +7005,13 @@
       <c r="A32" s="1">
         <v>43221</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="16">
         <v>17600</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="16">
         <v>29700.000000000004</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="16">
         <v>7700.0000000000009</v>
       </c>
       <c r="E32" s="4">
@@ -5247,13 +7023,13 @@
       <c r="A33" s="1">
         <v>43252</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="16">
         <v>17600</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="16">
         <v>29700.000000000004</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="16">
         <v>7700.0000000000009</v>
       </c>
       <c r="E33" s="4">
@@ -5262,58 +7038,220 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="24">
         <v>43282</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="B34" s="25">
+        <v>15000</v>
+      </c>
+      <c r="C34" s="25">
+        <v>30000</v>
+      </c>
+      <c r="D34" s="25">
+        <v>7000</v>
+      </c>
+      <c r="E34" s="25">
+        <f t="shared" si="1"/>
+        <v>52000</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="24">
         <v>43313</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="B35" s="25">
+        <v>12000</v>
+      </c>
+      <c r="C35" s="25">
+        <v>30000</v>
+      </c>
+      <c r="D35" s="25">
+        <v>7000</v>
+      </c>
+      <c r="E35" s="25">
+        <f t="shared" si="1"/>
+        <v>49000</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="24">
         <v>43344</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="B36" s="25">
+        <v>12000</v>
+      </c>
+      <c r="C36" s="25">
+        <v>32000</v>
+      </c>
+      <c r="D36" s="25">
+        <v>7000</v>
+      </c>
+      <c r="E36" s="25">
+        <f t="shared" si="1"/>
+        <v>51000</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="24">
         <v>43374</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="B37" s="25">
+        <v>12000</v>
+      </c>
+      <c r="C37" s="25">
+        <v>32000</v>
+      </c>
+      <c r="D37" s="25">
+        <v>8000</v>
+      </c>
+      <c r="E37" s="25">
+        <f t="shared" si="1"/>
+        <v>52000</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="24">
         <v>43405</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="B38" s="25">
+        <v>13000</v>
+      </c>
+      <c r="C38" s="25">
+        <v>32000</v>
+      </c>
+      <c r="D38" s="25">
+        <v>8000</v>
+      </c>
+      <c r="E38" s="25">
+        <f t="shared" si="1"/>
+        <v>53000</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39" s="24">
         <v>43435</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="B39" s="25">
+        <v>15000</v>
+      </c>
+      <c r="C39" s="25">
+        <v>35000</v>
+      </c>
+      <c r="D39" s="25">
+        <v>8000</v>
+      </c>
+      <c r="E39" s="25">
+        <f t="shared" si="1"/>
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="25">
+        <v>12000</v>
+      </c>
+      <c r="C40" s="25">
+        <v>30000</v>
+      </c>
+      <c r="D40" s="25">
+        <v>7000</v>
+      </c>
+      <c r="E40" s="25">
+        <f t="shared" si="1"/>
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="25">
+        <v>10500</v>
+      </c>
+      <c r="C41" s="25">
+        <v>30000</v>
+      </c>
+      <c r="D41" s="25">
+        <v>7000</v>
+      </c>
+      <c r="E41" s="25">
+        <f t="shared" si="1"/>
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="25">
+        <v>11000</v>
+      </c>
+      <c r="C42" s="25">
+        <v>32000</v>
+      </c>
+      <c r="D42" s="25">
+        <v>800</v>
+      </c>
+      <c r="E42" s="25">
+        <f t="shared" si="1"/>
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="25">
+        <v>11000</v>
+      </c>
+      <c r="C43" s="25">
+        <v>32000</v>
+      </c>
+      <c r="D43" s="25">
+        <v>8000</v>
+      </c>
+      <c r="E43" s="25">
+        <f t="shared" si="1"/>
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="25">
+        <v>15000</v>
+      </c>
+      <c r="C44" s="25">
+        <v>32000</v>
+      </c>
+      <c r="D44" s="25">
+        <v>8000</v>
+      </c>
+      <c r="E44" s="25">
+        <f t="shared" si="1"/>
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="25">
+        <v>16000</v>
+      </c>
+      <c r="C45" s="25">
+        <v>32000</v>
+      </c>
+      <c r="D45" s="25">
+        <v>8000</v>
+      </c>
+      <c r="E45" s="25">
+        <f t="shared" si="1"/>
+        <v>56000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stevenadams/workspace/dogue/dogue-bi-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B1E69E-09E9-794F-82F8-B896DCBE1D84}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46880" yWindow="-16700" windowWidth="33480" windowHeight="21500" tabRatio="500" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="avalon" sheetId="3" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="wahroonga" sheetId="6" r:id="rId8"/>
     <sheet name="zetland" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1271,17 +1272,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="11" style="4"/>
+    <col min="2" max="2" width="16.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1864,7 +1868,7 @@
         <v>43252</v>
       </c>
       <c r="B33" s="4">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="C33" s="4">
         <v>41600</v>
@@ -1874,7 +1878,7 @@
       </c>
       <c r="E33" s="4">
         <f t="shared" si="1"/>
-        <v>74600</v>
+        <v>77600</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -6073,19 +6077,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="2" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stevenadams/workspace/dogue/dogue-bi-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B1E69E-09E9-794F-82F8-B896DCBE1D84}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD421B96-BBB1-4345-8E75-BCDB27E81D61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23160" yWindow="460" windowWidth="39880" windowHeight="27320" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="avalon" sheetId="3" r:id="rId1"/>
@@ -1276,7 +1276,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1964,11 +1964,11 @@
         <v>46000</v>
       </c>
       <c r="D38" s="27">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="E38" s="27">
         <f t="shared" si="1"/>
-        <v>85000</v>
+        <v>87000</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1976,17 +1976,17 @@
         <v>43435</v>
       </c>
       <c r="B39" s="27">
-        <v>35000</v>
+        <v>35500</v>
       </c>
       <c r="C39" s="27">
-        <v>50000</v>
+        <v>52500</v>
       </c>
       <c r="D39" s="27">
         <v>12000</v>
       </c>
       <c r="E39" s="27">
         <f t="shared" si="1"/>
-        <v>97000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -2793,7 +2793,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A2:XFD12"/>
+      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
